--- a/academycity/data/case1/datasets/excel/raw_data/case1.xlsx
+++ b/academycity/data/case1/datasets/excel/raw_data/case1.xlsx
@@ -37,7 +37,7 @@
     <t xml:space="preserve">BirthRate</t>
   </si>
   <si>
-    <t xml:space="preserve">GNI </t>
+    <t xml:space="preserve">GNI</t>
   </si>
   <si>
     <t xml:space="preserve">Algeria</t>
@@ -413,6 +413,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -660,7 +661,7 @@
   <dimension ref="A1:F113"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+      <selection pane="topLeft" activeCell="K20" activeCellId="0" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
